--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -581,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,13 +857,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="10"/>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4</v>
+      </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">

--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
+    <t>where to go from here…</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,10 +304,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,9 +615,11 @@
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6328125" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -627,8 +645,15 @@
         <v>34</v>
       </c>
       <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="e">
+        <f>+M30M1M1:M31</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -640,440 +665,500 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="5"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <v>4</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="13">
         <v>4</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="14">
         <v>4</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="4"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="4"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="4"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="4"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1085,6 +1170,8 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -131,20 +131,98 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Ideas</t>
   </si>
   <si>
     <t>where to go from here…</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>stairs, ring function</t>
+  </si>
+  <si>
+    <t>slept too much…</t>
+  </si>
+  <si>
+    <t>hope to improve</t>
+  </si>
+  <si>
+    <t>talked</t>
+  </si>
+  <si>
+    <t>put project together</t>
+  </si>
+  <si>
+    <t>it is good as it is</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Ldraw and then halls</t>
+  </si>
+  <si>
+    <t>halls, auditorium</t>
+  </si>
+  <si>
+    <t>coder</t>
+  </si>
+  <si>
+    <t>trello</t>
+  </si>
+  <si>
+    <t>more projects (mini), controlled at first</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>it is fun</t>
+  </si>
+  <si>
+    <t>trello (truman)</t>
+  </si>
+  <si>
+    <t>small objects, maps</t>
+  </si>
+  <si>
+    <t>finish presentation</t>
+  </si>
+  <si>
+    <t>like the own pace and selecting groups</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>hallways, classrooms</t>
+  </si>
+  <si>
+    <t>finish the u and work upstairs</t>
+  </si>
+  <si>
+    <t>loved freedom</t>
+  </si>
+  <si>
+    <t>make your own, creative, written out in the future dates</t>
+  </si>
+  <si>
+    <t>need a little more structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +238,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +266,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,30 +406,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,567 +741,698 @@
     <col min="5" max="5" width="5.1796875" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="3" t="e">
-        <f>+M30M1M1:M31</f>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="e">
+        <f>+M30M1M1:M32</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3"/>
-    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="9">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="9">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12">
+        <v>4</v>
+      </c>
+      <c r="I17" s="13">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12">
-        <v>4</v>
-      </c>
-      <c r="G17" s="12">
-        <v>4</v>
-      </c>
-      <c r="H17" s="12">
-        <v>4</v>
-      </c>
-      <c r="I17" s="13">
-        <v>4</v>
-      </c>
-      <c r="J17" s="14">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="12">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="12">
+        <v>4</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12">
+        <v>4</v>
+      </c>
+      <c r="I19" s="13">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12">
+        <v>4</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12">
+        <v>4</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="9">
+        <v>4</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="5"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -200,9 +200,6 @@
     <t>like the own pace and selecting groups</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>hallways, classrooms</t>
   </si>
   <si>
@@ -216,6 +213,72 @@
   </si>
   <si>
     <t>need a little more structure</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>putting the room together</t>
+  </si>
+  <si>
+    <t>good as is</t>
+  </si>
+  <si>
+    <t>classrooms, flipped</t>
+  </si>
+  <si>
+    <t>drag and drop is valuable</t>
+  </si>
+  <si>
+    <t>halls, classrooms</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>tello (truman)</t>
+  </si>
+  <si>
+    <t>computer issues hindered ability</t>
+  </si>
+  <si>
+    <t>keep working on map</t>
+  </si>
+  <si>
+    <t>research, planner</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>start project sooner, smaller groups</t>
+  </si>
+  <si>
+    <t>teams/email</t>
+  </si>
+  <si>
+    <t>overall skeleton</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">too slow at the beginning, </t>
+  </si>
+  <si>
+    <t>combing code</t>
+  </si>
+  <si>
+    <t>coding roof and walls</t>
+  </si>
+  <si>
+    <t>work on roof</t>
+  </si>
+  <si>
+    <t>come to class more</t>
   </si>
 </sst>
 </file>
@@ -406,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -444,6 +507,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -728,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,7 +807,7 @@
     <col min="5" max="5" width="5.1796875" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6328125" customWidth="1"/>
     <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
@@ -818,15 +884,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -852,15 +932,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -886,15 +980,29 @@
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -907,24 +1015,24 @@
         <v>37</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
+      <c r="F9" s="12">
+        <v>3.5</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="J9" s="9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
     </row>
@@ -934,15 +1042,29 @@
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -951,15 +1073,27 @@
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -968,15 +1102,29 @@
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1078,15 +1226,29 @@
         <v>13</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1116,7 +1278,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -1178,7 +1340,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -1188,15 +1350,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="9"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1274,13 +1446,25 @@
         <v>37</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="9"/>
+      <c r="F24" s="12">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3</v>
+      </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1379,7 +1563,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="9"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1388,15 +1572,29 @@
         <v>27</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="9"/>
+      <c r="F30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1405,15 +1603,29 @@
         <v>28</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="10"/>
+      <c r="F31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">

--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -236,9 +236,6 @@
     <t>abs</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>tello (truman)</t>
   </si>
   <si>
@@ -279,13 +276,52 @@
   </si>
   <si>
     <t>come to class more</t>
+  </si>
+  <si>
+    <t>put the town together</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>design and code</t>
+  </si>
+  <si>
+    <t>code and combine</t>
+  </si>
+  <si>
+    <t>tall pagoda building</t>
+  </si>
+  <si>
+    <t>Days with little work</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>design house</t>
+  </si>
+  <si>
+    <t>house and park</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>put house into functions</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>teams…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +354,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -469,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -511,6 +592,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,9 +911,10 @@
     <col min="11" max="11" width="4.6328125" customWidth="1"/>
     <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -828,8 +928,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
@@ -862,8 +964,12 @@
         <f>+M30M1M1:M32</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -877,87 +983,113 @@
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="12" t="s">
-        <v>69</v>
+      <c r="F4" s="12">
+        <v>3.5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="19" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
+      <c r="F5" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="21">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>4</v>
@@ -969,12 +1101,18 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="11"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="21">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -997,15 +1135,19 @@
         <v>64</v>
       </c>
       <c r="J8" s="9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="21">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -1028,53 +1170,51 @@
         <v>59</v>
       </c>
       <c r="J9" s="9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="12">
@@ -1084,19 +1224,25 @@
         <v>39</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="21">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
@@ -1107,7 +1253,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>39</v>
@@ -1119,15 +1265,19 @@
         <v>66</v>
       </c>
       <c r="J12" s="9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
@@ -1138,7 +1288,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>39</v>
@@ -1150,15 +1300,19 @@
         <v>47</v>
       </c>
       <c r="J13" s="9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="11" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="21">
+        <v>7</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1188,8 +1342,12 @@
         <v>51</v>
       </c>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1200,7 +1358,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>39</v>
@@ -1219,15 +1377,19 @@
         <v>57</v>
       </c>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" s="21">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="12">
@@ -1237,21 +1399,25 @@
         <v>39</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="21">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -1267,22 +1433,26 @@
       <c r="G17" s="12">
         <v>4</v>
       </c>
-      <c r="H17" s="12">
-        <v>4</v>
+      <c r="H17" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="13">
         <v>4</v>
       </c>
       <c r="J17" s="9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
         <v>15</v>
@@ -1298,8 +1468,8 @@
       <c r="G18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="12">
-        <v>4</v>
+      <c r="H18" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="I18" s="13">
         <v>4</v>
@@ -1312,8 +1482,12 @@
         <v>36</v>
       </c>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
@@ -1329,22 +1503,26 @@
       <c r="G19" s="12">
         <v>4</v>
       </c>
-      <c r="H19" s="12">
-        <v>4</v>
+      <c r="H19" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="13">
         <v>4</v>
       </c>
       <c r="J19" s="9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="11" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="21">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
@@ -1361,17 +1539,25 @@
         <v>39</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="21">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
@@ -1383,12 +1569,18 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="11"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" s="21">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
@@ -1404,22 +1596,26 @@
       <c r="G22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="12">
-        <v>4</v>
+      <c r="H22" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" s="21">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
@@ -1431,12 +1627,18 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="11"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" s="21">
+        <v>14</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
@@ -1447,34 +1649,38 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="J24" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" s="21">
+        <v>8</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="12" t="s">
@@ -1497,8 +1703,12 @@
         <v>41</v>
       </c>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" s="21">
+        <v>10.5</v>
+      </c>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
@@ -1510,12 +1720,18 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="11"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="21">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
@@ -1527,12 +1743,18 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="11"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="8" t="s">
         <v>25</v>
@@ -1544,12 +1766,18 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="11"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" s="21">
+        <v>4</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="8" t="s">
         <v>26</v>
@@ -1561,12 +1789,18 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="19"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="21">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="8" t="s">
         <v>27</v>
@@ -1589,15 +1823,19 @@
         <v>69</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="19" t="s">
         <v>69</v>
       </c>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="8" t="s">
         <v>28</v>
@@ -1620,15 +1858,19 @@
         <v>69</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="19" t="s">
         <v>69</v>
       </c>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1642,6 +1884,8 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,8 +1194,8 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="9" t="s">
-        <v>85</v>
+      <c r="J10" s="9">
+        <v>2.5</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="19" t="s">

--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="102">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -315,6 +316,21 @@
   </si>
   <si>
     <t>teams…</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Questions during Presentation</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -893,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1891,4 +1907,622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2nd Semester/Summative Before Final/Grade.xlsx
+++ b/2nd Semester/Summative Before Final/Grade.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,7 +1990,9 @@
       <c r="D4" s="12"/>
       <c r="E4" s="6"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="9"/>
@@ -2005,7 +2007,9 @@
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>100</v>
@@ -2049,7 +2053,9 @@
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
         <v>39</v>
@@ -2192,7 +2198,9 @@
       <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="s">
         <v>100</v>
@@ -2209,7 +2217,9 @@
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13" t="s">
         <v>39</v>
@@ -2226,7 +2236,9 @@
       <c r="D16" s="12"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13" t="s">
         <v>39</v>
@@ -2306,7 +2318,9 @@
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13" t="s">
         <v>100</v>
@@ -2323,7 +2337,9 @@
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13" t="s">
         <v>39</v>
@@ -2340,7 +2356,9 @@
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13" t="s">
         <v>100</v>
@@ -2357,7 +2375,9 @@
       <c r="D23" s="12"/>
       <c r="E23" s="2"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13" t="s">
         <v>39</v>
@@ -2374,7 +2394,9 @@
       <c r="D24" s="12"/>
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2413,9 @@
       <c r="D25" s="12"/>
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
         <v>39</v>
@@ -2408,7 +2432,9 @@
       <c r="D26" s="12"/>
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13" t="s">
         <v>39</v>
@@ -2425,7 +2451,9 @@
       <c r="D27" s="12"/>
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13" t="s">
         <v>39</v>
@@ -2442,7 +2470,9 @@
       <c r="D28" s="12"/>
       <c r="E28" s="2"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="13" t="s">
         <v>39</v>
@@ -2459,7 +2489,9 @@
       <c r="D29" s="12"/>
       <c r="E29" s="2"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13" t="s">
         <v>39</v>
